--- a/PWLPOS.v2/public/template_data/kategori.xlsx
+++ b/PWLPOS.v2/public/template_data/kategori.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\Tugas-WebLanjut\PWLPOS.v2\public\template_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{824309EC-1B24-49F3-90C1-8C2937AAE62F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16657FD0-4016-4F4E-94F5-A5F2D7DDE90C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6DD32707-5706-4304-B357-C5FFE19521F5}"/>
   </bookViews>
@@ -42,22 +42,22 @@
     <t>kategori_nama</t>
   </si>
   <si>
-    <t>KTG010</t>
-  </si>
-  <si>
-    <t>Shampo</t>
-  </si>
-  <si>
-    <t>KTG011</t>
-  </si>
-  <si>
-    <t>Poster</t>
-  </si>
-  <si>
-    <t>KTG012</t>
-  </si>
-  <si>
-    <t>Pot Bunga</t>
+    <t>KTG013</t>
+  </si>
+  <si>
+    <t>KTG014</t>
+  </si>
+  <si>
+    <t>KTG015</t>
+  </si>
+  <si>
+    <t>Buku Komik</t>
+  </si>
+  <si>
+    <t>Buku Sejarah</t>
+  </si>
+  <si>
+    <t>Buku Tulis</t>
   </si>
 </sst>
 </file>
@@ -421,7 +421,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -439,20 +439,20 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
